--- a/3.a.SentenceBert/splitSentenceBertCluster/finalGroup_3.xlsx
+++ b/3.a.SentenceBert/splitSentenceBertCluster/finalGroup_3.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,44 +445,2001 @@
           <t>preProcessedResult</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>应用有更改系统设置的风险</t>
+          <t>在群成员列表中，添加新成员的选项被错误地激活了，即使没有经过成员的同意也能直接将他们拉入群聊。</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>应用 更改 系统 设置 风险</t>
+          <t>群 成员 列表 添加 新 成员 选项 错误 激活 没有 成员 同意 拉 入 群聊</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安全</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>该软件在搜索群聊时存在显示问题。首先，当用户进行搜索操作时，软件没有提供任何正在搜索的视觉提示，如旋转的加载圆圈，导致用户无法判断搜索是否正在进行或已完成。其次，如果搜索失败，软件并未给出任何错误提示或相应的群聊信息，这使得用户难以理解为何没有找到他们搜索的群聊。最后，在网络连接中断的情况下，软件也没有为用户提供断网提醒，这可能导致用户在不知情的情况下无法正常使用软件的功能。</t>
+          <t>非群管理员也可以直接邀请其他人进入群，而且不需要对方验证</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>搜索 群聊 进行 搜索 软件 没有 提供 正在 搜索 视觉 提示 旋转 加载 圆圈 无法 判断 搜索 是否 正在 进行 完成 搜索 失败 软件 并未 给出 错误 提示 相应 群聊 信息 难以 理解 没有 找到 搜索 群聊 最后 网络连接 中断 情况 软件 没有 提供 断网 提醒 不知情 情况 无法 正常 软件</t>
+          <t>非群 管理员 邀请 其他人 进入 群 验证</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安全</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>在进行测试，发现：
-1、群主身份，更改成功，并无更改成功消息提示
-2、不是群主身份，无法更改，却无无法更改消息提示</t>
+          <t>在搜索用户并邀请其加入群聊的过程中，系统存在漏洞。即使用户没有明确同意，他们也可能被随机邀请进群，这可能引发用户的困扰和隐私问题。</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>进行 发现 
- 群主 身份 更改 成功 更改 成功 消息 提示 
- 群主 身份 无法 更改 无法 更改 消息 提示</t>
+          <t>搜索 邀请 加入 群聊 过程 系统 漏洞 没有 明确 同意 随机 邀请 进群 引发 困扰 隐私</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>图片显示了一个在线支付界面，但问题描述仅提到“仅仅在线支付”，没有提供具体的支付信息或操作步骤。因此，无法从图片中直接识别出任何与问题描述相关的bug。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>图片 在线 支付 界面 仅 提到 仅仅 在线 支付 没有 提供 具体 支付 信息 操作步骤 无法 图片 识别 出 相关</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>在群组管理功能中，当尝试添加一个已经存在于群组的成员时，系统未能成功执行此操作。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>群组 管理 添加 群组 成员 系统 未能 成功 执行</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>问题描述：用户在查看信息、回复帖子或回复回帖时，无法正确使用“@我的”和“赞我的”功能。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>查看 信息 回复 帖子 回复 回帖 无法 正确 @ 赞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>问题描述与图片内容不符，显示了重复的消息提示，而实际内容仅显示了一条。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>图片 内容 不符 重复 消息 提示 内容 仅 一条</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>问题描述：用户在输入框中输入换行符后，界面显示异常。图片描述：输入框内显示为空白，没有文字内容。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>输入框 输入 换行符 界面显示 异常 图片 输入框 空白 没有 文字 内容</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>聊天中设计财产问题时没有安全提醒</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>聊天 设计 财产 没有 安全 提醒</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>编辑不正常退出之后，再次进入app，无法进入。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>编辑 正常 退出 之后 再次 进入 app 无法 进入</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>不断在聊天框复制粘贴表情，复制表情到30 个以上时会有一定概率应用出现闪退。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>不断 聊天 框 复制粘贴 表情 复制 表情 30   时会 一定 概率 应用 出现 闪退</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>这是一个软件的闪退问题。在用户使用过程中，应用程序突然关闭并重新启动，导致用户必须重新开始他们的操作。这可能是由于代码错误、内存溢出或其他系统问题导致的。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>软件 闪退 过程 应用程序 突然 关闭 重新启动 必须 重新 代码 错误 内存 溢出 系统</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>在创建群聊并选择好友时，当点击某个好友的头像进行操作时，该头像图片出现了闪烁的现象。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>创建 群聊 选择 好友 点击 好友 头像 进行 头像图片 出现 闪烁 现象</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>该软件在用户上传文件功能上存在明显的设计缺陷。具体表现为，用户在上传过程中无法取消操作，一旦开始上传错误文件，只能无奈等待整个上传过程完成，这极大地增加了用户的使用困扰和流量损失风险。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>上传 文件 明显 设计 缺陷 具体表现 上传 过程 无法 取消 上传 错误 文件 只能 无奈 等待 整个 上传 过程 完成 极大 增加 困扰 流量 损失 风险</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>在输入法中输入“笑哭”表情和在表情列表中点击“笑哭”表情的结果不一致，导致输入法中的表情无法被保存。这是一个明显的功能缺陷，且该缺陷每次都会出现。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>输入法 输入 笑 哭 表情 表情 列表 点击 笑 哭 表情 一致 输入法 表情 无法 保存 明显 缺陷 缺陷 每次 出现</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>在进入app进行注册账号时，系统提示允许使用手机号或邮箱注册。然而，当尝试使用邮箱进行注册时，发现无法完成此操作。键盘仅能切换到数字输入模式，并且在整个注册过程中，用户只能输入十一个数字。这种限制使得邮箱注册功能无法正常使用。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>进入 app 进行 注册 账号 系统 提示 允许 手机号 邮箱 注册 邮箱 进行 注册 发现 无法 完成 键盘 仅能 切换 数字 输入 模式 整个 注册 过程 只能 输入 十一个 数字 限制 邮箱 注册 无法 正常</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>添加群聊时 搜索联系人只能通过名称，联系人只以名称存在，易出现搞错联系人的情况。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>添加 群聊   搜索 联系人 只能 名称 联系人 只以 名称 易 出现 搞错 联系人 情况</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>该软件在创建群组的过程中存在一个用户界面的bug。当用户试图将超过20名成员添加到新群组时，软件允许他们继续进行此操作，即使已经超出了最大成员限制。然而，直到用户进入最后一步并尝试完成创建过程时，系统才显示一个错误消息，提示“请求的数据超出系统限制”。这个错误消息要求用户返回到添加成员的步骤并重新开始创建过程。这导致了不必要的用户交互和潜在的数据超载问题。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>创建 群组 过程 用户界面 试图 超过 20 名 成员 添加 新 群组 软件 允许 继续 进行 超出 最大 成员 限制 进入 最后 一步 完成 创建 过程 系统 错误 消息 提示 请求 数据 超出 系统 限制 错误 消息 要求 返回 添加 成员 重新 创建 过程 不必要 交互 潜在 数据 超载</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>这个bug的问题在于，根据系统当前的成员上限（2人），用户尝试添加198名成员时，系统提示“请求超过系统限制”，导致添加失败。这与需求中要求的群成员上限500人不符，实际上系统无法满足用户的添加请求。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>系统 当前 成员 上限 添加 198 名 成员 系统 提示 请求 超过 系统 限制 添加 失败 需求 要求 群 成员 上限 500 不符 实际上 系统 无法 满足用户 添加 请求</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>该软件在用户尝试更改群名称时，存在一个字符长度限制的问题。当输入的字符数超过64个时，软件无法正确处理，导致用户无法完成群名称的更改。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>更改 群 名称 字符 长度 限制 输入 字符 数 超过 64 软件 无法 正确处理 无法 完成 群 名称 更改</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>该软件在执行“清空聊天记录”的操作后，未能完全删除历史消息。尽管用户尝试通过界面选项来清除聊天记录，但在聊天历史中仍然可以找到被删除的消息，这表明软件的聊天记录清理功能存在缺陷。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>执行 清空 聊天记录 未能 完全 删除 历史 消息 界面 选项 清除 聊天记录 聊天 历史 仍然 找到 删除 消息 表明 软件 聊天记录 清理 缺陷</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>该软件界面在展示成员选择时存在视觉和功能上的问题。首先，当所有成员的头像相同时，用户无法通过头像区分各个成员的身份，这可能导致用户在选择成员时的混淆和误解。其次，当已选择的成员数量超过8个后，后续的成员头像不再显示，导致用户无法看到所有的成员选项，这可能会影响用户的选择效率并降低用户体验。</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>界面 展示 成员 选择 视觉 成员 头像 相同 无法 头像 区分 成员 身份 选择 成员 混淆 误解 当已 选择 成员 数量 超过 后续 成员 头像 不再 无法 看到 成员 选项 选择 效率 降低</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>注册杰迷吧的时候，提示可以用手机和邮箱注册，可是实际上邮箱并不能注册</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>注册 杰迷 提示 手机 邮箱 注册 实际上 邮箱 不能 注册</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>这个软件的@功能似乎存在不一致性。在某些情况下，用户可以成功地在消息中@自己，但在其他时候，该功能无法正常工作，导致用户无法@自己。这可能会导致用户在尝试执行某些操作时遇到困难，从而影响整体的使用体验。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>软件 @ 不一致性 情况 成功 消息 @ 无法 正常 工作 无法 @ 执行 遇到困难 整体</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>在软件的好友添加功能中，当用户成功添加一个好友后，进入与该好友的聊天页面时出现了一个显示错误。具体来说，聊天界面上展示的好友昵称与其实际设置或显示的昵称不匹配。这可能导致用户无法正确识别正在与之交谈的好友，从而产生沟通上的混淆和不便。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>软件 好友 添加 成功 添加 好友 进入 好友 聊天 页面 出现 错误 具体来说 聊天 界面 展示 好友 昵称 设置 昵称 匹配 无法 正确 识别 正在 交谈 好友 产生 沟通 混淆 不便</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>在群组搜索功能中，当用户输入数字进行查找时，系统错误地展示了包含该数字的群组名称。这意味着即使用户输入的数字并不存在于任何群组的名称中，系统仍然返回了匹配的结果。这显然违反了用户的期望，可能导致用户混淆和不便。</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>群组 搜索 输入 数字 进行 查找 系统 错误 展示 包含 数字 群组 名称 意味着 输入 数字 群组 名称 系统 仍然 返回 匹配 显然 违反 期望 混淆 不便</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>新建群组，添加群成员时，从上方搜索框搜索出XW牛仔很忙，点击添加，添加成功，返回添加群组之前的最近联系人界面，XW牛仔很忙显示并未添加，其实是同一个人，但是显示有错</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>新建 群组 添加 群 成员 上方 搜索 框 搜索 出 XW 牛仔 忙 点击 添加 添加 成功 返回 添加 群组 之前 最近 联系人 界面 XW 牛仔 忙 并未 添加 其实 同一个 错</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>在软件界面的聊天功能中，当用户选择“设置”快捷短语作为输入内容时，系统错误地将其识别为普通文本。这导致用户的输入意图与显示结果不符，给用户带来了混淆和不便。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>软件 界面 聊天 选择 设置 快捷 短语 输入 内容 系统 错误 识别 普通 文本 输入 意图 不符 带来 混淆 不便</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>创建群聊时，不可在没有添加成员的情况下创建。（不可创建空群）</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>创建 群聊 不可 没有 添加 成员 情况 创建 不可 创建 空群</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>该软件在用户选择添加已存在于群组中的用户时，没有正确地置灰处理，导致用户在多次尝试后才能收到“该用户已经在群组”的提示。此外，提示信息并不明确指出是哪一个用户已在群组中，这增加了用户的困扰和疑惑。这种不一致的行为模式和不清晰的反馈机制导致了用户体验的下降。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>选择 添加 群组 没有 正确 地置 灰 处理 多次 收到 群组 提示 提示信息 明确指出 群组 增加 困扰 疑惑 一致 行为 模式 清晰 反馈 机制 下降</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>该软件在执行“新建群-添加成员”的操作时，当尝试一次添加21个成员时出现了问题。尽管系统显示了成功创建群组的消息，但在查看群组成员列表时，可以明显看出系统的响应延迟和性能下降。用户界面似乎没有正确地更新以反映新添加的成员，而且系统处理大量数据的能力似乎受到了限制，这导致用户体验下降。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>执行 新建 群 - 添加 成员 一次 添加 21 成员 出现 系统 成功 创建 群组 消息 查看 群 组成员 列表 明显 看出 系统 响应 延迟 性能 下降 用户界面 没有 正确 更新 反映 新 添加 成员 系统 处理 大量 数据 能力 限制 下降</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>该软件在查找群组功能上存在缺陷。用户无法通过输入群组编号来搜索特定的群组，这违反了用户的期望和软件的功能要求。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>查找 群组 缺陷 无法 输入 群组 编号 搜索 特定 群组 违反 期望 软件 要求</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>在加入群组步骤4完成后：想要加入的群组管理员不处理或延迟处理加群请求，而申请方只能等待通知，无其他通知。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>加入 群组 完成 想要 加入 群组 管理员 处理 延迟 处理 加群 请求 申请 方 只能 等待 通知 通知</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>在与好友聊天并尝试发送照片时，用户点击“确定”按钮后，应用程序突然停止响应。随后，手机屏幕显示为白色，经过短暂的等待，应用主页面重新出现。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>好友 聊天 发送 照片 点击 确定 按钮 应用程序 突然 停止 响应 手机 屏幕显示 白色 短暂 等待 应用 主 页面 重新 出现</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>【预置条件】
+用户已登录
+【测试步骤】
+1.登录app，朋友-更多-发起群聊进入添加成员页面
+2.选中多个最近联系好友
+3.点击确认按钮
+【预期结果】
+添加成功，页面跳转至创建群组页面
+【实际结果】
+添加成功，但每次选中或取消选中时已选成员头像会闪动</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 登录 
+ 测试步骤 
+ . 登录 app 朋友 - 更 - 发起 群聊 进入 添加 成员 页面 
+ . 选中 多个 最近 联系 好友 
+ . 点击 确认 按钮 
+ 预期 
+ 添加 成功 页面 跳转 创建 群组 页面 
+ 添加 成功 每次 选中 取消 选中 已选 成员 头像 闪动</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>改名后显示出来的信息没有变，但是点开头像查看个人资料时显示的却是更改过后的名字（左面图为点击个人资料显示的名字，右为正常显示出的曾用名“源77”）</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>改名 信息 没有 变 点 开头 查看 个人资料 却是 更改 过后 名字 左面 图为 点击 个人资料 名字 右为 正常 出 曾用名 源 77</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>该软件界面在好友消息助手中存在显示错误。当用户被添加为好友时，系统没有正确显示用户的选择结果，无论用户是同意还是拒绝，界面都显示“对方请求加您为好友”，这与实际的用户操作不符。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>界面 好友 消息 助手 错误 添 加为好友 系统 没有 正确 选择 同意 拒绝 界面 请求 加 好友 不符</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>问题描述：在群聊助手的界面中，当一个用户作为群主拒绝另一个用户加入该群后，被拒绝的用户似乎能够无限次数地重新申请加入该群。此外，软件界面并未提供一个“黑名单”功能，使得管理员无法将特定用户从系统中完全移除。这可能导致管理混乱和用户体验问题。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>群聊 助手 界面 群主 拒绝 加入 群后 拒绝 能够 无限 次数 重新 申请加入 该群 软件 界面 并未 提供 黑名单 管理员 无法 特定 系统 完全 移除 管理混乱</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>问题描述：在尝试上传文件时，系统会显示错误消息“文件缺少后缀名”。然而，许多文件，特别是配置文件和用户创建的文件，通常不包含扩展名或后缀。因此，系统不应基于文件的后缀名来验证其有效性。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>上传 文件 系统 错误 消息 文件 缺少 后缀名 文件 特别 配置文件 创建 文件 通常 包含 扩展名 后缀 系统 应 文件 后缀名 验证 有效性</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>该搜索功能似乎存在排序混乱的问题，导致无关的用户名出现在结果中。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>搜索 排序 混乱 无关 用户名 出现</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>该软件在群聊或与他人聊天时，其功能相对有限。与其他聊天应用相比，它缺少一些常见的互动功能，例如发送红包等。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>群聊 聊天 相对 有限 聊天 应用 相比 缺少 常见 互动 发送 红包</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>搜索群，显示匹配的群，但是没有进行排序</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>搜索 群 匹配 群 没有 进行 排序</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>在更改头像后，该应用在群聊页面中未能实时更新用户的头像。即使用户已经成功更改了他们的头像，但在群聊界面中，他们的头像仍然是旧的，没有反映最新的更改。</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>更改 头像 应用 群聊 页面 未能 实时 更新 头像 成功 更改 头像 群聊 界面 头像 仍然 旧 没有 反映 最新 更改</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>根据问题描述和对应的图片，这个软件界面在执行搜索操作时出现了错误。当用户试图查找名为“地瓜土豆”的群组时，系统错误地显示了两个重复的群组名称，而不是一个。这可能是因为系统的搜索算法存在问题，或者是数据存储和检索过程中的错误。这个问题可能会导致用户无法正确找到他们想要加入的群组，从而影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>对应 图片 软件 界面 执行 搜索 出现 错误 试图 查找 名为 地瓜 土豆 群组 系统 错误 两个 重复 群组 名称 是因为 系统 搜索算法 数据 存储 检索 过程 错误 无法 正确 找到 想要 加入 群组</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>在群聊界面中，添加好友的功能似乎出现了问题。用户尝试添加其他好友到群聊时，系统未能正确响应或显示相关操作。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>群聊 界面 添加 好友 出现 添加 好友 群聊 系统 未能 正确 响应 相关</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>在朋友界面中，右上角的“聊天”按钮旁边的第一个眼睛状的功能按钮（通常用于显示或隐藏在线状态）无法被点击。尝试点击该按钮时，它没有任何反应或切换功能。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>朋友 界面 右上角 聊天 按钮 旁边 第一个 眼睛 状 按钮 通常 用于 隐藏 在线 状态 无法 点击 点击 按钮 没有 反应 切换</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>在创建群组的过程中，用户界面缺乏必要的个性化功能。具体来说，当尝试填写群组信息时，没有提供上传群头像的选项，这使得用户无法为他们的群组添加个人标识或特色。此外，该界面也没有提供任何其他可能增强聊天体验的个性化设计元素。这种设计的缺失可能导致用户体验上的单调和不完整感，从而影响用户对应用的整体满意度。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>创建 群组 过程 用户界面 缺乏 必要 个性化 具体来说 填写 群组 信息 没有 提供 上传 群 头像 选项 无法 群组 添加 个人 标识 特色 界面 没有 提供 增强 聊天 个性化 设计 元素 设计 缺失 单调 完整 感 应用 整体 满意度</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>在“商城”tab下，用户点击广告轮播中的一个广告时，系统错误地提示网络连接不可用。尽管用户的设备实际上已连接到互联网，但应用程序仍然显示了这一错误信息。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>商城 tab 点击 广告 轮播 广告 系统 错误 提示 网络连接 不可 设备 实际上 连接 互联网 应用程序 仍然 错误信息</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>当用群号搜索群时，有时搜索不到或搜索不全群。当创建几个名称相同的群时。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>当用 群号 搜索 群时 搜索 不到 搜索 全群 创建 几个 名称 相同 群时</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>该软件在执行“朋友-我的群组-更多-加入群”操作时，出现了搜索功能异常的问题。当用户在搜索栏输入想要添加的群名称并点击搜索标志进行搜索时，搜索功能并未如预期那样工作。无论是直接点击搜索图标还是在手机上输入群名后按回车键进行搜索，软件均未产生任何反应。此问题可能影响用户添加群组的功能体验，导致用户无法成功找到并加入他们想要的群组。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>执行 朋友 - 群组 - 更 - 加入 群 出现 搜索 异常 搜索 栏 输入 想要 添加 群 名称 点击 搜索 标志 进行 搜索 搜索 并未 预期 工作 无论是 点击 搜索 图标 手机 输入 群名 回车键 进行 搜索 软件 均 未 产生 反应 添加 群组 无法 成功 找到 加入 想要 群组</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>该图像显示了一个手机屏幕截图，其中包含一个时间戳“15:50”，以及网络状态指示符“Wi-Fi”和电池图标“4G”。屏幕的顶部有一个向左的箭头，可能表示返回功能。中间部分显示了中文文字“干活”，这可能是一个标题或关键词。底部有两个向右的箭头，通常用于导航到下一页或关闭当前界面。
+关于问题描述：“对无符合条件群组无响应”，这似乎指的是某个应用程序或系统在处理没有满足特定条件的群组时出现了某种故障或错误。然而，从这张图片中我们无法直接得知具体的bug细节，例如是崩溃、加载失败还是其他类型的响应问题。此外，图片本身并未提供任何与该bug相关的视觉线索或代码片段。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>手机 屏幕 截图 包含 时间 戳 15 : 50 网络 状态 指示 符 Wi - Fi 电池 图标 4G 屏幕 顶部 左 箭头 表示 返回 中间 部分 中文 文字 干活 标题 关键词 底部 两个 右 箭头 通常 用于 导航 一页 关闭 当前 界面 
+ 符合条件 群组 响应 指 应用程序 系统 处理 没有 满足 特定条件 群组 出现 某种 故障 错误 图片 无法 得知 具体 细节 崩溃 加载 失败 类型 响应 图片 并未 提供 相关 视觉 线索 代码 片段</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>在搜索框中输入一个确实存在的群名，但搜索不到。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>搜索 框中 输入 确实 群名 搜索 不到</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>该软件的群聊历史记录功能存在一个bug，用户无法通过日期查找聊天记录。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>群聊 历史记录 无法 日期 查找 聊天记录</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>红米note3手机上运行时会出现语音消息无法听取的现象</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>红米 note3 手机 运行 时会 出现 语音 消息 无法 听取 现象</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>该软件在测试“群简介”功能时出现以下问题：
+1. 当群简介的字数超过设定的限制时，系统并未提供任何提示信息，导致用户无法得知他们的输入已经超过了限制。
+2. 当前，只有群主能够编辑群简介，而群成员无法进行编辑操作。然而，当发生这种情况时，系统并没有给用户发送任何消息或提示，这使得群成员无法得知他们没有权限进行编辑。</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>群 简介 出现 以下 
+ .   当群 简介 字数 超过 设定 限制 系统 并未 提供 提示信息 无法 得知 输入 超过 限制 
+ .   当前 群主 能够 编辑 群 简介 而群 成员 无法 进行 编辑 发生 情况 系统 没有 发送 消息 提示 群 成员 无法 得知 没有 权限 进行 编辑</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>该应用程序中的“送花”功能似乎存在一个bug。用户在尝试点击送两朵花的按钮时，发现选项并没有显示出来。这可能意味着界面元素没有正确加载，或者相关的功能代码存在问题。</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>应用程序 送花 点击 送 两朵花 按钮 发现 选项 没有 意味着 界面 元素 没有 正确 加载 相关 代码</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>问题描述：软件界面中缺少分享和转发的按钮，导致用户无法进行这两项功能的操作。</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>软件 界面 缺少 分享 转发 按钮 无法 进行 这两项</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>在创建群聊时，用户可以选择添加自己的好友加入群，也可以添加陌生人加入群，并且这种添加不需要经过被添加人的同意，即用户可以随意添加任何人进入一个群，这样会导致在使用该软件时，在毫无察觉的情况下被拉入自己并不想加入的群里面，被迫接受该群发送的消息或是垃圾广告，直到退出该群，极大的降低了用户体验。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>创建 群聊 选择 添加 好友 加入 群 添加 陌生人 加入 群 添加 添加 同意 随意 添加 任何人 进入 群 毫无 察觉 情况 拉入 不想 加入 群 里面 被迫 接受 该群 发送 消息 垃圾 广告 退出 该群 极大 降低</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>这个软件的bug是在后台运行时，当用户重新点击桌面上的APP图标时，系统会重新启动。这可能导致用户在尝试访问应用时遇到延迟或丢失其未保存的数据。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>软件 后台 运行 重新 点击 桌面上 APP 图标 系统 重新启动 访问 应用 遇到 延迟 丢失 其未 保存 数据</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>该搜索功能似乎未能正确识别和返回与输入数字相关的结果。用户输入的数字“18KT”并未在搜索结果中出现，这表明搜索机制可能无法处理或理解这种类型的查询。此外，即使用户尝试使用更明确的搜索词（如“test”和“ABK”），结果也显示为模糊且不相关的内容，这进一步表明搜索算法可能存在问题。总体而言，这个bug导致用户难以通过搜索找到他们需要的信息。</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>搜索 未能 正确 识别 返回 输入 数字 相关 输入 数字 18KT 并未 搜索 出现 表明 搜索 机制 无法 处理 理解 类型 查询 更 明确 搜索词 test ABK 模糊 相关 内容 进一步 表明 搜索算法 总体而言 难以 搜索 找到 信息</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>该软件在用户退出当前账号后，重新打开应用时出现了登录问题。具体表现为每次打开应用都会自动跳转到注册页面，而不是恢复到用户的主页面。这可能表明应用的账户管理系统存在某种配置错误或逻辑问题，导致无法正确识别和恢复用户的登录状态。</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>退出 当前 账号 重新 打开 应用 出现 登录 具体表现 每次 打开 应用 自动 跳转 注册 页面 恢复 主 页面 表明 应用 账户 管理系统 某种 配置 错误 逻辑 无法 正确 识别 恢复 登录 状态</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>在vivo手机中，当用户选中图像并点击返回按钮后，预期的结果是回到图像列表界面。然而，实际发生的是用户被重定向到了个人设置界面。这表示软件的返回功能出现了错误，导致用户无法按预期导航到正确的界面。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>vivo 手机 选中 点击 返回 按钮 预期 回到 列表 界面 发生 重定向 个人 设置 界面 表示 软件 返回 出现 错误 无法 预期 导航 正确 界面</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>在聊天应用的界面中，右上角的三个图标中的“公众号”被点击时，没有产生任何反应或功能。此外，该图标旁边的文字说明也不明确其具体功能，导致用户对其作用和用途感到困惑。这种设计可能会给用户带来混淆，影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>聊天 应用 界面 右上角 三个 图标 公众 号 点击 没有 产生 反应 图标 旁边 文字说明 明确 具体 作用 用途 感到 困惑 设计 带来 混淆</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>该问题描述了一个软件或应用程序的群名称输入功能存在边界值过大的问题。当用户尝试输入一个非常长的群名称时，系统可能无法正确处理或显示这个名称，导致输入失败或显示错误。这个问题可能会导致用户体验不佳，因为用户可能无法为群组设置一个合适的名称。</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>软件 应用程序 群 名称 输入 边界值 过大 输入 非常 长 群 名称 系统 无法 正确处理 名称 输入 失败 错误 不佳 无法 群组 设置 合适 名称</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>如果网络不好，网络加载出错会重复提示。</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>网络 不好 网络 加载 出错 重复 提示</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>在登录应用软件后，用户选择使用QQ账号登录。出于方便他人搜索的考虑，该用户决定修改其昵称。然而，令人困惑的是，尽管用户已经成功修改了昵称，但在群聊中，他们的显示昵称并没有更新为新设置的昵称，仍然保持为旧的昵称。这可能导致了用户在群聊中的不一致展示和潜在的混淆。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>登录 应用软件 选择 QQ 账号 登录 方便 搜索 考虑 决定 修改 昵称 令人困惑 成功 修改 昵称 群聊 昵称 没有 更新 新 设置 昵称 仍然 保持 旧 昵称 群聊 一致 展示 潜在 混淆</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>该搜索加入群的功能在用户输入关键字后，显示的群信息有延迟。具体来说，当用户点击搜索按钮后，群信息的加载并不是立即完成的，而是有一个明显的时间差，导致用户在看到搜索结果之前需要等待一段时间。这种延迟可能会影响用户的使用体验，使得他们感到不便或沮丧。</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>搜索 加入 群 输入 关键字 群 信息 延迟 具体来说 点击 搜索 按钮 群 信息 加载 立即 完成 明显 时间差 看到 搜索 之前 等待 一段时间 延迟 感到 不便 沮丧</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>在打开杰迷吧的音乐后，在聊天发语音时，音乐对语音有干扰。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>打开 杰迷 音乐 聊天 发 语音 音乐 语音 干扰</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>在播放Jay主页的宣传片时，每次都没声音，之前调过依旧没声音</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>播放 Jay 主页 宣传片 每次 没 声音 之前 调 依旧 没 声音</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>创建群组后，尝试查看历史消息时，界面上出现了两个查询图标。当用户在输入框中输入“测试”并点击查询后，系统响应时间过长，没有在预期时间内显示查询结果。</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>创建 群组 查看 历史 消息 界面 出现 两个 查询 图标 输入框 输入 点击 查询 系统 响应 时间 过长 没有 预期 时间 查询</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>描述：
+在群聊中，当群主尝试将管理员移出群聊时，系统错误地显示了“管理员杰迷268移出群聊”的提示信息。该提示信息混淆了管理员和群主的身份，导致用户误解为是管理员而非群主执行了移出操作。</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 群聊 群主 管理员 移出 群聊 系统 错误 管理员 杰迷 268 移出 群聊 提示信息 提示信息 混淆 管理员 群主 身份 误解 管理员 非 群主 执行 移出</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>在聊天记录界面中，文字搜索与限定日期的搜索标志重叠，导致用户在执行搜索操作时可能产生混淆和误操作。这种设计布局不仅影响了用户的使用体验，还可能导致用户无法准确找到他们需要的信息。</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>聊天记录 界面 文字 搜索 限定 日期 搜索 标志 重叠 执行 搜索 产生 混淆 误操作 设计 布局 无法 准确 找到 信息</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>在低分辨率的显示屏上，产品说明中的红色文字显示存在布局偏移问题。这种偏移使得原本应该对齐的文字和界面元素发生了错位，影响了用户界面的整体美观性和易读性。特别是在小屏幕或像素较低的设备上，这种偏移问题更为明显。</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>低分辨率 显示屏 产品 说明 红色 文字 布局 偏移 偏移 原本 应该 对齐 文字 界面 元素 发生 错位 用户界面 整体 美观 性 易读性 特别 屏幕 像素 低 设备 偏移 更为 明显</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>在搜索群聊时，输入法的界面中显示了用户已经加入的群聊，但它们被输入法的背景遮挡，导致用户难以识别和选择。</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>搜索 群聊 输入法 界面 加入 群聊 输入法 背景 遮挡 难以 识别 选择</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>用户进入群“聊天记录”，上面的搜索按钮出现了两个，页面布局有误</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>进入 群 聊天记录 上面 搜索 按钮 出现 两个 页面 布局 有误</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>该界面显示了一个群组设置，其中“消息免打扰”选项被激活。当用户点击此选项时，一个提示框弹出，告知用户已开启消息免打扰功能。但根据提供的信息和图片，这个框的生命周期似乎非常短，导致用户体验不佳，误认为应用程序存在问题。</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>界面显示 群组 设置 消息 免 打扰 选项 激活 点击 选项 提示框 弹 出 告知 开启 消息 免 打扰 提供 信息 图片 框 生命周期 非常 短 不佳 误认为 应用程序</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>在群组设置中，用户试图查看群公告时遇到了问题。当前的设计似乎没有提供查看历史公告的功能，导致用户无法回顾过去的公告内容。这样的设计缺陷可能会影响用户的使用体验，因为他们无法获取过去的重要信息。这种不便可能会对用户的满意度和对应用的整体依赖性产生负面影响。</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>群组 设置 试图 查看 群 公告 遇到 当前 设计 没有 提供 查看 历史 公告 无法 回顾过去 公告 内容 设计 缺陷 无法 获取 过去 重要 信息 不便 满意度 应用 整体 依赖性 产生 负面影响</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>该Bug描述的问题是，在用户尝试将超过20名成员添加到群组时，系统会正确地提醒用户请求的数据超过了设定的限制。然而，这个提示并没有阻止用户继续添加更多的成员到群组中。当用户点击“确定”后，系统会立即弹出一个警告，告知用户请求的数据已超过限制。这导致用户必须返回到之前的界面去修改成员数量，从而给用户带来了不必要的麻烦和不便。</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Bug 超过 20 名 成员 添加 群组 系统 正确 提醒 请求 数据 超过 设定 限制 提示 没有 阻止 继续 添加 更 成员 群组 点击 确定 系统 立即 弹 出 警告 告知 请求 数据 超过 限制 必须 返回 之前 界面 修改 成员 数量 带来 不必要 麻烦 不便</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>在添加好友功能中，搜索结果的排序似乎存在一些问题。用户使用关键字进行搜索时，即使输入的关键字与搜索结果中的某个条目完全匹配，该条目仍然会出现在搜索结果的后部，使得用户难以找到并添加他们需要联系的好友。</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>添加 好友 搜索 排序 关键字 进行 搜索 输入 关键字 搜索 条目 完全 匹配 条目 仍然 出现 搜索 后部 难以 找到 添加 联系 好友</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>在群聊界面中，用户的“我的群”和“好友”列表混杂在一起，导致用户难以区分哪些是群聊哪些是个人好友。这种设计上的混淆可能会造成用户的使用困扰，影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>群聊 界面 群 好友 列表 混杂 一起 难以 区分 群聊 个人 好友 设计 混淆 造成 困扰</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>当一台机器已经登录过JayMe时，再使用另外一台设备登录时就会出现提示“同一账号已在其他设备登录”。所造成的问题就是用户只能在一个设备登录，当之前的设备因为某些原因无法退出时，另外的设备将会无法登录。 可以选择登录验证。</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>一台 机器 登录 JayMe 一台 设备 登录 出现 提示 同一 账号 设备 登录 造成 只能 设备 登录 之前 设备 原因 无法 退出 设备 将会 无法 登录   选择 登录 验证</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>在软件测试过程中，发现一个页面元素混乱的问题。当用户尝试通过关键字查找聊天记录时，如果找不到相应的记录，删除搜索框中的关键字后，下方的显示区域并未回到初始的“显示全部聊天记录”状态，而是仍然为空白，这可能给用户带来困扰和不便。</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>软件测试 过程 发现 页面 元素 混乱 关键字 查找 聊天记录 找 不到 相应 记录 删除 搜索 框中 关键字 下方 区域 并未 回到 初始 聊天记录 状态 仍然 空白 带来 困扰 不便</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>问题描述：搜索功能在用户输入关键字后未显示匹配结果，仅呈现空白页面，导致用户无法判断搜索是否成功或需继续尝试其他关键词。</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>搜索 输入 关键字 未 匹配 仅 呈现 空白 页面 无法 判断 搜索 是否 成功 需 继续 关键词</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>模糊搜索时查找出来的结果排序的分类不好。</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>模糊 搜索 查找 排序 分类 不好</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>用户在修改用户名后，在群中的名称有时不能及时刷新</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>修改 用户名 群中 名称 不能 及时 刷新</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>在搜索群时，如果组群名称重复用户无法区分</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>搜索 群时 组群 名称 重复 无法 区分</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>客服无应答！长时间过后，依然无应答</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>客服 无应答 长时间 过后 依然 无应答</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>前提条件:发起群聊后添加成员
+复现步骤:
+1.发起群聊，点击添加成员，一次可以添加超过20名成员
+2.在创建群组时提示 请求数据超过系统限制
+预期结果:在勾选超过20名成员后，确定按钮变为不可点击状态</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>前提条件 : 发起 群聊 添加 成员 
+ 复现 : 
+ . 发起 群聊 点击 添加 成员 一次 添加 超过 20 名 成员 
+ . 创建 群组 提示   请求 数据 超过 系统 限制 
+ 预期 : 勾选 超过 20 名 成员 确定 按钮 变为 不可 点击 状态</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>该软件界面显示，当用户尝试创建与已有群名称相同的新群时，系统未能成功创建，而是提示“创建失败”。这可能是因为系统的群名称唯一性检查机制出现了问题。</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>界面显示 创建 已有 群 名称 相同 新 群时 系统 未能 成功 创建 提示 创建 失败 是因为 系统 群 名称 唯一性 检查 机制 出现</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>在软件界面中，当用户尝试搜索一个不存在的关键字“bbmsjshsm”时，系统似乎没有正确地响应。尽管用户输入了一个不在系统内的群名，但下方的“热门群推荐”信息栏并没有更新或出现相应的结果，也没有转变成“搜索结果”。这可能意味着软件在处理此类输入时存在逻辑错误或者反馈机制的缺陷。</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>软件 界面 搜索 关键字 bbmsjshsm 系统 没有 正确 响应 输入 系统 群名 下方 热门 群 推荐 信息 栏 没有 更新 出现 相应 没有 转变成 搜索 意味着 软件 处理 此类 输入 逻辑 错误 反馈 机制 缺陷</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>在群聊界面发送图片时，系统相册中显示的图片数量与实际存在的照片数量不符。软件仅展示了部分照片，而实际上相册中存储了更多的图片。</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>群聊 界面 发送 图片 系统 相册 图片 数量 照片 数量 不符 软件 仅 展示 部分 照片 实际上 相册 存储 更 图片</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>在查找群的页面上，用户界面设计存在不便之处。目前，用户必须点击搜索小图标才能输入群号进行查找，这一过程相对繁琐，不如直接在搜索栏中输入群号来得方便。这种设计增加了用户的操作步骤，可能导致用户体验下降，从而影响用户对应用的整体满意度。</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>查找 群 页面 用户界面 设计 不便 处 目前 必须 点击 搜索 小图标 输入 群号 进行 查找 这一 过程 相对 繁琐 搜索 栏中 输入 群号 来得 方便 设计 增加 操作步骤 下降 应用 整体 满意度</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>该软件在执行群组搜索功能时存在一个明显的bug。当用户尝试查找不存在的群组并输入群号时，系统并未给出任何反馈信息，既没有显示搜索结果，也没有提供退出选项。用户会被困在当前页面，无法进行下一步操作。</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>执行 群组 搜索 明显 查找 群组 输入 群号 系统 并未 给出 反馈 信息 没有 搜索 没有 提供 退出 选项 被困 当前 页面 无法 进行 一步</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>该软件在群成员管理功能上存在缺陷，用户无法直接点击进入群成员的设置选项，必须进行长按操作才能实现。这种设计增加了用户的使用难度和不便，影响了用户体验。</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>群 成员 管理 缺陷 无法 点击 进入 群 成员 设置 选项 必须 进行 长 实现 设计 增加 难度 不便</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>问题描述：在更改用户昵称时，“+”功能按钮应被替换为设置“*”按钮，因为这种设计可能会造成用户的混淆或误解。</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>更改 昵称 + 按钮 应 替换 设置 * 按钮 设计 造成 混淆 误解</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>创建群名长度为65，应用没有提示。</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>创建 群名 长度 65 应用 没有 提示</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>该应用程序在收到陌生人的好友请求时，并未提供足够的信息来让用户了解对方的身份。用户无法查看对方的个人资料或获取任何关于他们的背景信息，这限制了用户与新联系人互动的能力，可能导致沟通不畅或误解。</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>应用程序 收到 陌生人 好友 请求 并未 提供 足够 信息 了解 身份 无法 查看 个人资料 获取 背景 信息 限制 新 联系人 互动 能力 沟通 不畅 误解</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>问题描述：当用户在创建名为“默默默默”的群聊后，尝试再次创建一个同名的群聊时，系统未能阻止该操作。尽管名称重复，但群聊仍被成功创建。</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>创建 名为 默默 默默 群聊 再次 创建 同名 群聊 系统 未能 阻止 名称 重复 群聊 成功 创建</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>在这张图片中，我们看到一个界面，其设计相对简单和单一。功能按钮的数量有限，这可能导致用户无法访问他们可能需要的更多功能。这种设计可能限制了应用或系统的实用性和吸引力，尤其是对于那些期望更多交互和功能的用户来说。</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>图片 看到 界面 设计 相对 简单 单一 按钮 数量 有限 无法访问 更 多功能 设计 限制 应用 系统 实用性 吸引力 尤其 期望 更 交互</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>同一用户的在同一个群提出多条申请，管理员若是在之前几条的审批信息中拒绝他的申请加入，则在之后的几条申请信息中按同意按钮会显示同意入群失败。与需求文档中的以最后一条审批结果为准这个描述相违。</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>同一 同一个 群 提出 多条 申请 管理员 之前 几条 审批 信息 拒绝 申请加入 之后 几条 申请 信息 同意 按钮 同意 入群 失败 需求 文档 最后 一条 审批 为准 相违</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>问题描述：在尝试添加好友时，用户在第一次添加好友后再次尝试添加，系统仍然弹出了确认添加好友的窗口。这可能表明系统的缓存或记忆机制存在问题，导致即使用户已经确认过操作，系统仍旧认为需要再次确认。</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>添加 好友 第一次 添加 好友 再次 添加 系统 仍然 弹出 确认 添加 好友 窗口 表明 系统 缓存 记忆 机制 确认 系统 认为 再次 确认</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>每当在好友--聊天界面单机进入一个群之后在点击右上角显示群组设置时会有一小段缓存时间之后再返回到好友聊天界面（连续按2下后退）后会发现群头像由初始头像加载到目前使用的头像，时间间隔很短 。如果关闭数据网再进行如上操作之后加载头像的时间间隔会明显提高。
+也就是说经过缓存刷新操作之后的再观察群头像会有一段缓存刷新间隔能看到初始头像</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>好友 -- 聊天 界面 单机 进入 群 之后 点击 右上角 群组 设置 时会 一小 段 缓存 时间 之后 返回 好友 聊天 界面 连续 后退 发现 群 头像 初始 头像 加载 目前 头像 时间 间隔 短   关闭 数据网 进行 之后 加载 头像 时间 间隔 明显提高 
+ 也就是说 缓存 刷新 之后 观察 群 头像 一段 缓存 刷新 间隔 看到 初始 头像</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>问题描述：
+在jayme的朋友界面中，当用户选择“群组”并尝试通过“加入群”功能时，期望能看到推荐的热门群或相同爱好的群。但实际结果中，该功能并未展示任何推荐群组，导致用户无法根据推荐找到他们可能感兴趣的群组。</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ jayme 朋友 界面 选择 群组 加入 群 期望 看到 推荐 热门 群 相同 爱好 群 并未 展示 推荐 群组 无法 推荐 找到 感兴趣 群组</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>在群聊功能中，用户试图查看历史消息时，界面的跳转导致了一个视觉和用户体验的问题。具体来说，历史消息的排版显得非常粗糙，关键字和日期的搜索框没有按照统一的格式或风格排列，给人一种混乱和不协调的感觉。此外，界面缺少下拉刷新的功能，这可能会影响用户更新信息的体验。</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>群聊 试图 查看 历史 消息 界面 跳转 视觉 具体来说 历史 消息 排版 显得 非常 粗糙 关键字 日期 搜索 框 没有 统一 格式 风格 排列 一种 混乱 协调 感觉 界面 缺少 拉 刷新 更新 信息</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>在“JAY”tab下，点击送花按钮时，选择花的数量的界面显示不清晰。原本应该有明显的界面区分，但现在看起来非常模糊，导致用户难以准确地选择所需的花的数量。</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>JAY tab 点击 送花 按钮 选择 花 数量 界面显示 清晰 原本 应该 明显 界面 区分 现在 看起来 非常 模糊 难以 准确 选择 需 花 数量</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>送花时，自己拥有的鲜花不是2朵时，一次送花数量没有“2”这个选项</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>送花 拥有 鲜花 朵 一次 送花 数量 没有 选项</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>该软件界面设计存在冗余操作问题。用户在尝试添加好友或群组时，需要点击两个不同的图标：一个是加好友/群的图标，另一个是搜索图标。这导致了额外的步骤和不必要的复杂性，使得用户需要执行两次操作才能开始他们的搜索。这种设计冗余可能会降低用户体验，并可能导致用户感到困惑或沮丧。</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>界面设计 冗余 添加 好友 群组 点击 两个 不同 图标 加 好友 / 群 图标 搜索 图标 额外 不必要 复杂性 执行 两次 搜索 设计 冗余 降低 感到 困惑 沮丧</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>该应用程序在执行查找群操作时，存在一个界面交互问题。当用户点击查找群的上方横条以期望出现搜索框时，该应用并未如预期那样展示搜索框，而是需要用户点击右上角的放大镜图标才能触发搜索功能。这与大多数应用中直接点击上方横条即可弹出搜索框的用户交互习惯存在显著差异，导致用户体验上的不便和困惑。</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>应用程序 执行 查找 群 界面 交互 点击 查找 群 上方 横条 期望 出现 搜索 框时 应用 并未 预期 展示 搜索 框 点击 右上角 放大镜 图标 触发 搜索 大多数 应用 点击 上方 横条 即可 弹 出 搜索 框 交互 习惯 显著 差异 不便 困惑</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>在朋友-我的群组-更多-加入群的路径下，当用户试图通过搜索功能查找特定的群（例如“杰迷”）时，系统并未提供任何关于未找到相关群的信息反馈。此外，即使用户已经输入了搜索关键词，系统也无法即时响应并基于该关键词进行搜索。相反，用户只能从系统推荐的群列表中选择，或者删除当前的搜索关键词并重新输入来尝试。这导致了用户体验的不便，因为它限制了用户的搜索能力和即时反馈的需求。</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>朋友 - 群组 - 更 - 加入 群 路径 试图 搜索 查找 特定 群 杰迷 系统 并未 提供 未找到 相关 群 信息反馈 输入 搜索 关键词 系统 无法 即时 响应 关键词 进行 搜索 相反 只能 系统 推荐 群 列表 选择 删除 当前 搜索 关键词 重新 输入 不便 限制 搜索 能力 即时 反馈 需求</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>在app的搜索功能中，用户无法清晰地区分是按照名称还是ID号进行搜索。这导致了搜索功能的混乱，使得用户在使用过程中可能会感到困惑和不便。</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>app 搜索 无法 清晰 地区 分是 名称 ID 号 进行 搜索 搜索 混乱 过程 感到 困惑 不便</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>该软件在进行搜索时，先显示的结果是模糊的，然后再显示准确的结果。这种设计不符合用户的期望和习惯，可能导致用户的困扰和不便，从而影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>进行 搜索 先 模糊 准确 设计 符合 期望 习惯 困扰 不便</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>加入一个群的时候群简介不多，而且看不到群组部分人员啊 ，不能了解到更多信息， 画面看上去比较空洞。</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>加入 群 群 简介 看不到 群组 部分 人员   不能 了解 更 信息   画面 看上去 比较 空洞</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>群聊时号码无法复制。影响邀请别人加入。</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>群聊 号码 无法 复制 邀请 加入</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>在软件的好友管理功能中，用户无法进行分类和备注操作，导致好友管理体验不佳。</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>软件 好友 管理 无法 进行 分类 备注 好友 管理 不佳</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>问题描述：在尝试将新的联系人添加到最近联系人列表时，系统显示添加失败，错误信息表明该联系人已经存在于列表中。</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>新 联系人 添加 最近 联系人 列表 系统 添加 失败 错误信息 表明 联系人 列表</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>用户体验</t>
         </is>
       </c>
     </row>
@@ -497,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,27 +2481,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>更改</t>
+          <t>群</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>提示</t>
+          <t>系统</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -554,396 +2511,7476 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>软件</t>
+          <t>添加</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>群聊</t>
+          <t>群组</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>进行</t>
+          <t>界面</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>成员</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>正在</t>
+          <t>没有</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>情况</t>
+          <t>群聊</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>消息</t>
+          <t>输入</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>提供</t>
+          <t>点击</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>群主</t>
+          <t>好友</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>身份</t>
+          <t>出现</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>创建</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>发现</t>
+          <t>进行</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>难以</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>正常</t>
+          <t>软件</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>不知情</t>
+          <t>名称</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>提醒</t>
+          <t>信息</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>断网</t>
+          <t>消息</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>中断</t>
+          <t>设计</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>网络连接</t>
+          <t>加入</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>最后</t>
+          <t>头像</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>找到</t>
+          <t>按钮</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>理解</t>
+          <t>应用</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>应用</t>
+          <t>选择</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>信息</t>
+          <t>聊天</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>相应</t>
+          <t>提示</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>限制</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>给出</t>
+          <t>不便</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>并未</t>
+          <t>页面</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>完成</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>是否</t>
+          <t>过程</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>判断</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>圆圈</t>
+          <t>图片</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>加载</t>
+          <t>查找</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>旋转</t>
+          <t>并未</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>视觉</t>
+          <t>超过</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>风险</t>
+          <t>登录</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>设置</t>
+          <t>提供</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>系统</t>
+          <t>执行</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>聊天记录</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>设备</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>文件</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>上传</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>表情</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>名</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>关键词</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>邮箱</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>推荐</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>群号</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>刷新</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>缺少</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>模糊</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>选中</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>非常</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>送花</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>账号</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>缓存</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>简介</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>输入法</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>初始</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>相对</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>上方</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>反应</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>个人资料</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>照片</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>申请</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>间隔</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>身份</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>公告</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>时会</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>支付</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>弹</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>关闭</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>移出</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>偏移</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>语音</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>不到</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>输入框</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>网络</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>jay</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>恢复</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>方便</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>音乐</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>过后</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>相册</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>号</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>后缀名</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>声音</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>回到</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>没</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>申请加入</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>沮丧</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>背景</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>设定</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>默默</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>个性化</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>表示</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>箭头</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>分类</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>需</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>条目</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>一台</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>tab</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>热门</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>jayme</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>标志</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>栏</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>获取</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>导航</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>短</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>用于</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>有限</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>框中</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>互动</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>旧</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>名为</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>免</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>是因为</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>搜索算法</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>打扰</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>旁边</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>无应答</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>不好</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>笑</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>复制</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>闪退</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>重新启动</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>保存</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>哭</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>极大</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>审批</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>同一个</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>横条</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>忙</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>牛仔</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>xw</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>拉</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>长度</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>几条</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>模式</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>超出</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>回复</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>联系</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>操作步骤</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>一条</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>即时</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>冗余</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>主</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>激活</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>花</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>切换</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>上限</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>回顾过去</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>性</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>美观</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>朵</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>生命周期</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>鲜花</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>提示框</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>过去</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>错位</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>易读性</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>像素</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>看上去</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>界面设计</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>误认为</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>更为</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>两次</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>遮挡</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>额外</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>上面</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>有误</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>开启</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>对齐</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>先</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>发</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>显著</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>差异</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>路径</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>一段时间</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>时间差</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>未找到</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>信息反馈</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>即可</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>保持</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>令人困惑</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>决定</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>考虑</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>地区</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>分是</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>应用软件</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>播放</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>主页</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>框时</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>放大镜</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>画面</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>红色</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>重要</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>产品</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>显示屏</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>低分辨率</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>看不到</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>宣传片</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>重叠</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>限定</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>触发</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>依旧</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>大多数</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>调</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>拥有</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>不畅</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>此类</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>转变成</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>文档</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>为准</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>相违</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>出错</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>弹出</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>bbmsjshsm</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>检查</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>记忆</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>唯一性</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>已有</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>认为</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>勾选</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>复现</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>前提条件</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>单机</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>多条</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>处</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>被困</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>简单</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>单一</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>替换</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>难度</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>无法访问</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>提出</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>来得</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>多功能</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>实用性</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>栏中</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>吸引力</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>繁琐</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>小图标</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>一小</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>连续</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>依赖性</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>依然</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>粗糙</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>统一</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>格式</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>将会</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>风格</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>排列</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>一种</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>机器</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>协调</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>感觉</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>现在</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>同名</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>混杂</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>后部</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>看起来</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>bug</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>也就是说</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>后退</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>长时间</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>数据网</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>客服</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>组群</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>明显提高</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>群中</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>号码</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>排版</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>判断</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>呈现</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>观察</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>空洞</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>一段</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>爱好</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>感兴趣</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>尤其</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>合适</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>白色</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>屏幕显示</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>停止</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>方</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>看出</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>疑惑</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>明确指出</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>灰</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>地置</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>空群</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>意图</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>短语</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>错</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>短暂</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>添</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>有效性</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>后缀</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>扩展名</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>配置文件</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>管理混乱</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>移除</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>黑名单</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>次数</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>无限</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>群后</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>加为好友</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>已选</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>源</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>曾用名</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>右为</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>图为</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>左面</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>却是</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>开头</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>点</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>变</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>改名</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>闪动</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>其实</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>交谈</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>过大</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>头像图片</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>溢出</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>内存</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>概率</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>一定</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>复制粘贴</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>不断</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>财产</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>换行符</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>回帖</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>无奈</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>帖子</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>仅仅</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>提到</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>隐私</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>引发</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>进群</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>随机</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>漏洞</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>其他人</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>非群</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>闪烁</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>流量</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>满足用户</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>遇到困难</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>不一致性</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>不再</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>后续</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>当已</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>清理</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>清除</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>数</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>损失</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>超载</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>最大</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>搞错</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>易</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>只以</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>十一个</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>仅能</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>键盘</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>手机号</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>风险</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>无关</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>相比</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>常见</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>不想</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>拉入</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>察觉</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>毫无</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>任何人</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>这两项</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>转发</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>分享</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>两朵花</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>送</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>而群</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>被迫</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>字数</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>当群</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>以下</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>听取</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>note3</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>红米</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>历史记录</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>确实</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>片段</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>线索</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>崩溃</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>红包</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>边界值</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>用途</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>作用</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>文字说明</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>公众</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>三个</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>重定向</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>vivo</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>配置</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>管理系统</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>总体而言</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>abk</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>搜索词</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>18kt</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>其未</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>丢失</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>桌面上</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>后台</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>细节</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>特定条件</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>标识</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>互联网</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>连接</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>网络连接</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>轮播</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>商城</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>感</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>单调</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>缺失</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>增强</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>特色</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>满足</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>必要</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>隐藏</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>状</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>眼睛</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>第一个</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>检索</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>土豆</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>地瓜</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>对应</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>实时</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>当用</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>全群</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>指</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>符合条件</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>一页</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>右</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>底部</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>干活</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>中文</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>中间</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>左</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>顶部</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>4g</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>fi</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>wi</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>符</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>指示</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>戳</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>均</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>回车键</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
         <v>1</v>
       </c>
     </row>

--- a/3.a.SentenceBert/splitSentenceBertCluster/finalGroup_3.xlsx
+++ b/3.a.SentenceBert/splitSentenceBertCluster/finalGroup_3.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Word Frequency" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="finalGroup_3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="finalGroup_3_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
